--- a/medicine/Psychotrope/Cruzcampo/Cruzcampo.xlsx
+++ b/medicine/Psychotrope/Cruzcampo/Cruzcampo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Cruzcampo est une marque de bière appartenant au groupe Heineken (Heineken España, basé à Séville) et un ancien groupe brassicole. La gamme serait la plus vendue en Espagne en termes de volume[1],[2]. Elle est brassée en Espagne dans différentes brasseries Heineken, et à l'étranger dans certaines brasseries du groupe (dont la brasserie de la Valentine).
+Cruzcampo est une marque de bière appartenant au groupe Heineken (Heineken España, basé à Séville) et un ancien groupe brassicole. La gamme serait la plus vendue en Espagne en termes de volume,. Elle est brassée en Espagne dans différentes brasseries Heineken, et à l'étranger dans certaines brasseries du groupe (dont la brasserie de la Valentine).
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie originelle fut fondée en 1904 par Roberto et Tomás Osborne à Séville, elle prit le nom de Vía Crucis a la Cruz del Campo[1], du nom d'un parcours dans les rues de Séville retraçant le chemin de croix du Christ.
-Gambrinus, personnage légendaire des Flandres, symbole des amateurs de bière, est le symbole officiel de l'entreprise depuis 1926[3].
-La brasserie Heineken a racheté Cruzcampo à la brasserie irlandaise Guinness en 2000[4].
-C'est la bière la plus bue de Séville[2]. Même si elle est particulièrement bue en Andalousie, la bière Cruzcampo se trouve dans tout le pays. La marque a des usines réparties dans toute l'Espagne, à Séville, Madrid, Jaén, Arano et Valence.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie originelle fut fondée en 1904 par Roberto et Tomás Osborne à Séville, elle prit le nom de Vía Crucis a la Cruz del Campo, du nom d'un parcours dans les rues de Séville retraçant le chemin de croix du Christ.
+Gambrinus, personnage légendaire des Flandres, symbole des amateurs de bière, est le symbole officiel de l'entreprise depuis 1926.
+La brasserie Heineken a racheté Cruzcampo à la brasserie irlandaise Guinness en 2000.
+C'est la bière la plus bue de Séville. Même si elle est particulièrement bue en Andalousie, la bière Cruzcampo se trouve dans tout le pays. La marque a des usines réparties dans toute l'Espagne, à Séville, Madrid, Jaén, Arano et Valence.
 En 2009, elle est déclarée saveur de l'année.[réf. nécessaire]
 </t>
         </is>
@@ -549,10 +563,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cruzcampo
-Cruzcampo 33cl. Type pilsen, titre d'alcool 4.8º.
+          <t>Cruzcampo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cruzcampo 33cl. Type pilsen, titre d'alcool 4.8º.
 Cruzcampo 33cl. "Especial", titre d'alcool 5.7º.
-Cruzcampo 33cl. "Pilsen y Especial: Jaén": Bière élaborée en exclusivité à Jaén pour la demande locale de la zone orientale d'Andalousie[5]
+Cruzcampo 33cl. "Pilsen y Especial: Jaén": Bière élaborée en exclusivité à Jaén pour la demande locale de la zone orientale d'Andalousie
 Cruzcampo 33 cl. "Light": titre d'alcool 2,4º et 30 % de calories en moins que la pilsen.
 Cruzcampo "Future": Pilsen en bouteille de PET d'un litre (élaborée à Jaén).
 Cruzcampo "Shandy": bière-limonade, titre d'alcool 0.9°.
@@ -561,8 +580,43 @@
 			Ancienne bouteille de Cruz del Campo
 			Bouteille de 33 cl de Shandy
 			canette de Shandy
-Autres bières
-Amstel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cruzcampo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cruzcampo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres bières</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Amstel.
 El Alcázar (boîte en alu de 33 cl et bouteille d'un litre). N'appartient pas à Heineken mais continue à être fabriquée à Jaén.
 Latino (Tinto de verano).
 Kaliber: sans alcool.
